--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="28" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -869,22 +869,10 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,14 +896,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1256,43 +1256,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1337,58 +1337,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1413,23 +1413,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1712,7 +1712,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3030,6 +3030,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3041,13 +3048,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3091,43 +3091,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="66"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3172,58 +3172,58 @@
       <c r="W3" s="66"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3248,23 +3248,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="66"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="63" t="s">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="63" t="s">
         <v>35</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="63" t="s">
         <v>21</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="63" t="s">
         <v>51</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="63" t="s">
         <v>31</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="63" t="s">
         <v>30</v>
       </c>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="63" t="s">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="63" t="s">
         <v>37</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="63" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="63" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="63" t="s">
         <v>25</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="D18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="68">
         <v>867717030422258</v>
       </c>
       <c r="F18" s="45"/>
@@ -5269,6 +5269,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -5282,11 +5287,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5297,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5330,43 +5330,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5411,58 +5411,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -5487,23 +5487,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>109</v>
       </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5818,7 +5818,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7136,13 +7136,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7154,6 +7147,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7164,8 +7164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7197,43 +7197,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -7278,58 +7278,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7354,23 +7354,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9139,6 +9139,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9150,13 +9157,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9167,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9200,43 +9200,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -9281,58 +9281,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -9357,23 +9357,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9452,7 +9452,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9539,7 +9539,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9628,7 +9628,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9657,7 +9657,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10946,6 +10946,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10957,13 +10964,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10974,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11007,43 +11007,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -11088,58 +11088,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -11164,49 +11164,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="44">
+        <v>862549040693833</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>129</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11218,26 +11244,50 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="44">
+        <v>860906041212165</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>131</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11247,26 +11297,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183033847695</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>72</v>
+      </c>
       <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="M8" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11276,26 +11352,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183038605858</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="G9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="M9" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11305,26 +11409,52 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>867717030432091</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="G10" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11334,26 +11464,52 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868183038516535</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="I11" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11363,26 +11519,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="44">
+        <v>868183038523952</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="60" t="s">
+        <v>76</v>
+      </c>
       <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="K12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11394,26 +11576,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868183034788930</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11423,26 +11633,56 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868183034785621</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="G14" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11452,26 +11692,52 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="44">
+        <v>868183038062738</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
+      <c r="G15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11481,26 +11747,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="44">
+        <v>868183033820924</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="I16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="O16" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11510,23 +11802,49 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="44">
+        <v>867857039907618</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="I17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
+      <c r="L17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -11537,23 +11855,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="44">
+        <v>868183035871461</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45" t="s">
+        <v>93</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -11564,23 +11908,49 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868183037811606</v>
+      </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="O19" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
@@ -11595,31 +11965,59 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C20" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="68">
+        <v>867717030422258</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="67"/>
+      <c r="O20" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="1"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -11627,23 +12025,49 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C21" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="44">
+        <v>867717030426887</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -11651,7 +12075,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11659,23 +12083,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C22" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="44">
+        <v>868183033877866</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
@@ -11683,7 +12135,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -11691,23 +12143,49 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C23" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="44">
+        <v>868183035870489</v>
+      </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="L23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="O23" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -11718,23 +12196,49 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C24" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="44">
+        <v>868183033846853</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="G24" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="O24" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -11745,23 +12249,51 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C25" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="44">
+        <v>864811037294092</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="G25" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="47">
+        <v>150000</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>51</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
@@ -11776,23 +12308,47 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C26" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="44">
+        <v>864811036930837</v>
+      </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="G26" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
@@ -11808,31 +12364,61 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C27" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="44">
+        <v>863586032847216</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
+      <c r="G27" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -11840,23 +12426,49 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="B28" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C28" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="44">
+        <v>863586032908307</v>
+      </c>
       <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="G28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
+      <c r="O28" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
@@ -11864,7 +12476,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -11872,23 +12484,49 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C29" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="44">
+        <v>861694031094806</v>
+      </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="G29" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
+      <c r="O29" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="16"/>
       <c r="U29" s="4" t="s">
@@ -11896,7 +12534,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -11904,23 +12542,49 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
+      <c r="B30" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C30" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="44">
+        <v>866192037775812</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="67"/>
+      <c r="O30" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="16"/>
       <c r="U30" s="4" t="s">
@@ -11928,7 +12592,7 @@
       </c>
       <c r="V30" s="11">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="16"/>
     </row>
@@ -11936,23 +12600,49 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
+      <c r="B31" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C31" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="44">
+        <v>861694030927311</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" s="67"/>
+      <c r="O31" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="16"/>
       <c r="U31" s="4" t="s">
@@ -11960,7 +12650,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -11968,23 +12658,53 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B32" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C32" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="44">
+        <v>861694031116583</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="45"/>
+      <c r="K32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
+      <c r="O32" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="16"/>
       <c r="U32" s="4" t="s">
@@ -11992,7 +12712,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -12000,23 +12720,51 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="B33" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C33" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="44">
+        <v>866192037827530</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="45"/>
+      <c r="K33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
+      <c r="O33" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="16"/>
       <c r="U33" s="4" t="s">
@@ -12032,23 +12780,53 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C34" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="44">
+        <v>863586032796587</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
+      <c r="O34" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="16"/>
       <c r="U34" s="4" t="s">
@@ -12064,23 +12842,49 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="B35" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C35" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="44">
+        <v>862631034742857</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
+      <c r="O35" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S35" s="4"/>
       <c r="T35" s="16"/>
       <c r="U35" s="4" t="s">
@@ -12088,7 +12892,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -12096,23 +12900,45 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11"/>
+      <c r="B36" s="42">
+        <v>44442</v>
+      </c>
+      <c r="C36" s="42">
+        <v>44533</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" s="47"/>
+      <c r="O36" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S36" s="4"/>
       <c r="T36" s="16"/>
       <c r="U36" s="4" t="s">
@@ -12120,7 +12946,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -12152,7 +12978,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -12270,7 +13096,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -12505,7 +13331,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>57</v>
@@ -12731,13 +13557,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12749,6 +13568,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
